--- a/modules/linear_programming/LP_land_alloc.xlsx
+++ b/modules/linear_programming/LP_land_alloc.xlsx
@@ -1,59 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/lectures/week_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/modules/linear_programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30CD4B0-EFC7-1645-8947-290888A4AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA0ACA-E6E3-E345-A118-699F4214C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1580" windowWidth="32300" windowHeight="16940" activeTab="1" xr2:uid="{97E91179-0D8E-BE42-80BF-F03E5D1A5CAA}"/>
+    <workbookView xWindow="1600" yWindow="1560" windowWidth="32300" windowHeight="16940" activeTab="2" xr2:uid="{97E91179-0D8E-BE42-80BF-F03E5D1A5CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Primal" sheetId="1" r:id="rId2"/>
+    <sheet name="Dual" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Dual!$B$2:$D$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Primal!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$E$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$E$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$E$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Dual!$F$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Primal!$E$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Dual!$F$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Primal!$E$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Primal!$E$7</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Dual!$F$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Primal!$E$2</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$F$5</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$F$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1!$F$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Dual!$G$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Primal!$F$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Dual!$G$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Primal!$F$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Primal!$F$7</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Wheat</t>
   </si>
@@ -176,6 +209,24 @@
   </si>
   <si>
     <t>decision vars Corn</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>resources</t>
   </si>
 </sst>
 </file>
@@ -267,12 +318,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD018C8C-81BE-0D4F-ABD2-B0DF0C3FC088}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,4 +1008,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E8724-E8A4-C141-8E5A-E4DFE3C95DB3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2*B3+C2*C3+D2*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>1800</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>SUMPRODUCT($B$2:$D$2,B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>SUMPRODUCT($B$2:$D$2,B6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>